--- a/DataCenter.xlsx
+++ b/DataCenter.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="10940" yWindow="300" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="user2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,7 +456,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>

--- a/DataCenter.xlsx
+++ b/DataCenter.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10940" yWindow="300" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
-    <sheet name="user2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,13 +19,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名字</t>
+    <t>property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -34,27 +69,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinese_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>english_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,12 +128,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,17 +151,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -454,98 +504,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
